--- a/Data Transformation/El Salvador.xlsx
+++ b/Data Transformation/El Salvador.xlsx
@@ -797,10 +797,10 @@
         <v>6646.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>319.75</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>319.75</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6646.3</v>
+        <v>6966.05</v>
       </c>
       <c r="X2" t="n">
-        <v>6646.3</v>
+        <v>6966.05</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.73289956</v>
@@ -835,11 +835,13 @@
       <c r="AC2" t="n">
         <v>-0.4553106</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>-0.50372497</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>-0.4553106</v>
+        <v>-0.4577388</v>
       </c>
       <c r="AH2" t="n">
         <v>190</v>
@@ -869,10 +871,10 @@
         <v>1478</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -890,10 +892,10 @@
         <v>190</v>
       </c>
       <c r="AX2" t="n">
-        <v>1478</v>
+        <v>1567</v>
       </c>
       <c r="AY2" t="n">
-        <v>1478</v>
+        <v>1567</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0.65641953</v>
@@ -910,11 +912,13 @@
       <c r="BD2" t="n">
         <v>-0.39918699</v>
       </c>
-      <c r="BE2" t="inlineStr"/>
+      <c r="BE2" t="n">
+        <v>-0.35507246</v>
+      </c>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="n">
-        <v>-0.39918699</v>
+        <v>-0.39684373</v>
       </c>
     </row>
     <row r="3">
@@ -975,10 +979,10 @@
         <v>6219.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>658.05</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>658.05</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -993,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6219.55</v>
+        <v>6877.6</v>
       </c>
       <c r="X3" t="n">
-        <v>6219.55</v>
+        <v>6877.6</v>
       </c>
       <c r="Y3" t="n">
         <v>-0.77715589</v>
@@ -1013,11 +1017,13 @@
       <c r="AC3" t="n">
         <v>-0.63269217</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>-0.41276994</v>
+      </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>-0.63269217</v>
+        <v>-0.61904129</v>
       </c>
       <c r="AH3" t="n">
         <v>218</v>
@@ -1047,10 +1053,10 @@
         <v>1425</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1068,10 +1074,10 @@
         <v>218</v>
       </c>
       <c r="AX3" t="n">
-        <v>1425</v>
+        <v>1595</v>
       </c>
       <c r="AY3" t="n">
-        <v>1425</v>
+        <v>1595</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0.739546</v>
@@ -1088,11 +1094,13 @@
       <c r="BD3" t="n">
         <v>-0.59700226</v>
       </c>
-      <c r="BE3" t="inlineStr"/>
+      <c r="BE3" t="n">
+        <v>-0.32539683</v>
+      </c>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="n">
-        <v>-0.59700226</v>
+        <v>-0.57893347</v>
       </c>
     </row>
     <row r="4">
@@ -1153,16 +1161,16 @@
         <v>4977.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>257.55</v>
+        <v>413.6</v>
       </c>
       <c r="R4" t="n">
-        <v>257.55</v>
+        <v>413.6</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1171,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5235.45</v>
+        <v>5409.5</v>
       </c>
       <c r="X4" t="n">
-        <v>5235.45</v>
+        <v>5409.5</v>
       </c>
       <c r="Y4" t="n">
         <v>-0.69850458</v>
@@ -1192,12 +1200,14 @@
         <v>-0.4075445</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.68941815</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
+        <v>-0.50123606</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.96907482</v>
+      </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>-0.432865</v>
+        <v>-0.44876674</v>
       </c>
       <c r="AH4" t="n">
         <v>141</v>
@@ -1227,16 +1237,16 @@
         <v>1070</v>
       </c>
       <c r="AQ4" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="AR4" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1248,10 +1258,10 @@
         <v>141</v>
       </c>
       <c r="AX4" t="n">
-        <v>1126</v>
+        <v>1163</v>
       </c>
       <c r="AY4" t="n">
-        <v>1126</v>
+        <v>1163</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0.67734554</v>
@@ -1269,12 +1279,14 @@
         <v>-0.42780749</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.69230769</v>
-      </c>
-      <c r="BF4" t="inlineStr"/>
+        <v>-0.51098901</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-0.97058824</v>
+      </c>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="n">
-        <v>-0.45126706</v>
+        <v>-0.46846435</v>
       </c>
     </row>
     <row r="5">
@@ -1335,10 +1347,10 @@
         <v>4615.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>468.05</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>468.05</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1353,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>4615.349999999999</v>
+        <v>5083.4</v>
       </c>
       <c r="X5" t="n">
-        <v>4615.35</v>
+        <v>5083.4</v>
       </c>
       <c r="Y5" t="n">
         <v>-0.82054581</v>
@@ -1373,11 +1385,13 @@
       <c r="AC5" t="n">
         <v>-0.6434288500000001</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>-0.5553814</v>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>-0.6434288500000001</v>
+        <v>-0.6368066100000001</v>
       </c>
       <c r="AH5" t="n">
         <v>140</v>
@@ -1407,10 +1421,10 @@
         <v>1061</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -1428,10 +1442,10 @@
         <v>140</v>
       </c>
       <c r="AX5" t="n">
-        <v>1061</v>
+        <v>1174</v>
       </c>
       <c r="AY5" t="n">
-        <v>1061</v>
+        <v>1174</v>
       </c>
       <c r="AZ5" t="n">
         <v>-0.7878787900000001</v>
@@ -1448,16 +1462,18 @@
       <c r="BD5" t="n">
         <v>-0.60761834</v>
       </c>
-      <c r="BE5" t="inlineStr"/>
+      <c r="BE5" t="n">
+        <v>-0.49553571</v>
+      </c>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="n">
-        <v>-0.60761834</v>
+        <v>-0.5990437199999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1003039</v>
@@ -1513,10 +1529,10 @@
         <v>3819.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>93</v>
+        <v>126.2</v>
       </c>
       <c r="R6" t="n">
-        <v>93</v>
+        <v>126.2</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1531,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3912.35</v>
+        <v>3945.55</v>
       </c>
       <c r="X6" t="n">
-        <v>3912.35</v>
+        <v>3945.55</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.90521318</v>
@@ -1552,12 +1568,12 @@
         <v>-0.59242982</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.83241252</v>
+        <v>-0.75089012</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>-0.60244358</v>
+        <v>-0.59904189</v>
       </c>
       <c r="AH6" t="n">
         <v>58</v>
@@ -1587,10 +1603,10 @@
         <v>856</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -1608,10 +1624,10 @@
         <v>58</v>
       </c>
       <c r="AX6" t="n">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="AY6" t="n">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="AZ6" t="n">
         <v>-0.89357798</v>
@@ -1629,12 +1645,12 @@
         <v>-0.58764628</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.82820513</v>
+        <v>-0.75641026</v>
       </c>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="n">
-        <v>-0.59845604</v>
+        <v>-0.59522987</v>
       </c>
     </row>
     <row r="7">
@@ -1695,16 +1711,16 @@
         <v>3508.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.40000000000001</v>
+        <v>264.25</v>
       </c>
       <c r="R7" t="n">
-        <v>97.40000000000001</v>
+        <v>264.25</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1713,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3605.7</v>
+        <v>3787.55</v>
       </c>
       <c r="X7" t="n">
-        <v>3605.7</v>
+        <v>3787.55</v>
       </c>
       <c r="Y7" t="n">
         <v>-0.64752969</v>
@@ -1734,12 +1750,14 @@
         <v>-0.53600556</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.8422233099999999</v>
-      </c>
-      <c r="AE7" t="inlineStr"/>
+        <v>-0.5168210600000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.98584772</v>
+      </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>-0.55666559</v>
+        <v>-0.55475189</v>
       </c>
       <c r="AH7" t="n">
         <v>103</v>
@@ -1769,16 +1787,16 @@
         <v>771</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -1790,10 +1808,10 @@
         <v>103</v>
       </c>
       <c r="AX7" t="n">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="AY7" t="n">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="AZ7" t="n">
         <v>-0.64363636</v>
@@ -1811,12 +1829,14 @@
         <v>-0.53414948</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.8493150699999999</v>
-      </c>
-      <c r="BF7" t="inlineStr"/>
+        <v>-0.52054795</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-0.98823529</v>
+      </c>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="n">
-        <v>-0.55492025</v>
+        <v>-0.55539651</v>
       </c>
     </row>
     <row r="8">
@@ -1877,10 +1897,10 @@
         <v>3265.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>332.95</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>332.95</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1895,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3265.65</v>
+        <v>3598.6</v>
       </c>
       <c r="X8" t="n">
-        <v>3265.65</v>
+        <v>3598.6</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1937,10 +1957,10 @@
         <v>642</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -1958,10 +1978,10 @@
         <v>83</v>
       </c>
       <c r="AX8" t="n">
-        <v>642</v>
+        <v>703</v>
       </c>
       <c r="AY8" t="n">
-        <v>642</v>
+        <v>703</v>
       </c>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
@@ -2031,10 +2051,10 @@
         <v>3228.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>310.6</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>310.6</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -2049,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3228.6</v>
+        <v>3539.2</v>
       </c>
       <c r="X9" t="n">
-        <v>3228.6</v>
+        <v>3539.2</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.38486842</v>
@@ -2069,11 +2089,13 @@
       <c r="AC9" t="n">
         <v>-0.40018547</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>-0.48104413</v>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>-0.40018547</v>
+        <v>-0.40648268</v>
       </c>
       <c r="AH9" t="n">
         <v>82</v>
@@ -2103,10 +2125,10 @@
         <v>637</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -2124,10 +2146,10 @@
         <v>82</v>
       </c>
       <c r="AX9" t="n">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="AY9" t="n">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="AZ9" t="n">
         <v>-0.41509434</v>
@@ -2144,11 +2166,13 @@
       <c r="BD9" t="n">
         <v>-0.38006757</v>
       </c>
-      <c r="BE9" t="inlineStr"/>
+      <c r="BE9" t="n">
+        <v>-0.42056075</v>
+      </c>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="n">
-        <v>-0.38006757</v>
+        <v>-0.3834237</v>
       </c>
     </row>
     <row r="10">
@@ -2209,10 +2233,10 @@
         <v>2652.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>492.3</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>492.3</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2227,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2652.1</v>
+        <v>3144.4</v>
       </c>
       <c r="X10" t="n">
-        <v>2652.1</v>
+        <v>3144.4</v>
       </c>
       <c r="Y10" t="n">
         <v>-0.28169199</v>
@@ -2247,11 +2271,13 @@
       <c r="AC10" t="n">
         <v>0.07077681</v>
       </c>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>1.28339518</v>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>0.07077681</v>
+        <v>0.16787996</v>
       </c>
       <c r="AH10" t="n">
         <v>71</v>
@@ -2281,10 +2307,10 @@
         <v>595</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -2302,10 +2328,10 @@
         <v>71</v>
       </c>
       <c r="AX10" t="n">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="AY10" t="n">
-        <v>595</v>
+        <v>717</v>
       </c>
       <c r="AZ10" t="n">
         <v>-0.22826087</v>
@@ -2322,11 +2348,13 @@
       <c r="BD10" t="n">
         <v>0.1163227</v>
       </c>
-      <c r="BE10" t="inlineStr"/>
+      <c r="BE10" t="n">
+        <v>1.44</v>
+      </c>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="n">
-        <v>0.1163227</v>
+        <v>0.22984563</v>
       </c>
     </row>
     <row r="11">
@@ -2387,10 +2415,10 @@
         <v>2000.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>281.6</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>281.6</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2405,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2000.8</v>
+        <v>2282.4</v>
       </c>
       <c r="X11" t="n">
-        <v>2000.8</v>
+        <v>2282.4</v>
       </c>
       <c r="Y11" t="n">
         <v>-0.19428189</v>
@@ -2425,11 +2453,13 @@
       <c r="AC11" t="n">
         <v>-0.17106517</v>
       </c>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>0.04122758</v>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>-0.17106517</v>
+        <v>-0.14967494</v>
       </c>
       <c r="AH11" t="n">
         <v>61</v>
@@ -2459,10 +2489,10 @@
         <v>466</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2480,10 +2510,10 @@
         <v>61</v>
       </c>
       <c r="AX11" t="n">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="AY11" t="n">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0.16438356</v>
@@ -2500,11 +2530,13 @@
       <c r="BD11" t="n">
         <v>-0.19516408</v>
       </c>
-      <c r="BE11" t="inlineStr"/>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="n">
-        <v>-0.19516408</v>
+        <v>-0.17601246</v>
       </c>
     </row>
     <row r="12">
@@ -2565,10 +2597,10 @@
         <v>1863.85</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>156.1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>156.1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2583,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1863.85</v>
+        <v>2019.95</v>
       </c>
       <c r="X12" t="n">
-        <v>1863.85</v>
+        <v>2019.95</v>
       </c>
       <c r="Y12" t="n">
         <v>-0.54070556</v>
@@ -2603,11 +2635,13 @@
       <c r="AC12" t="n">
         <v>-0.30226856</v>
       </c>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>-0.49571959</v>
+      </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
-        <v>-0.30226856</v>
+        <v>-0.32235772</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
@@ -2637,10 +2671,10 @@
         <v>441</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -2658,10 +2692,10 @@
         <v>51</v>
       </c>
       <c r="AX12" t="n">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="AY12" t="n">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="AZ12" t="n">
         <v>-0.55263158</v>
@@ -2678,11 +2712,13 @@
       <c r="BD12" t="n">
         <v>-0.30769231</v>
       </c>
-      <c r="BE12" t="inlineStr"/>
+      <c r="BE12" t="n">
+        <v>-0.5</v>
+      </c>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="n">
-        <v>-0.30769231</v>
+        <v>-0.32819074</v>
       </c>
     </row>
     <row r="13">
@@ -2690,21 +2726,21 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1003033</v>
+        <v>1003034</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La Gran Via</t>
+          <t>Metrocentro San Salvador</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2713,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>136.45</v>
+        <v>167.7</v>
       </c>
       <c r="H13" t="n">
-        <v>136.45</v>
+        <v>167.7</v>
       </c>
       <c r="I13" t="n">
-        <v>289.8</v>
+        <v>358.85</v>
       </c>
       <c r="J13" t="n">
-        <v>289.8</v>
+        <v>358.85</v>
       </c>
       <c r="K13" t="n">
-        <v>738</v>
+        <v>632.8</v>
       </c>
       <c r="L13" t="n">
-        <v>738</v>
+        <v>632.8</v>
       </c>
       <c r="M13" t="n">
-        <v>695.15</v>
+        <v>511.15</v>
       </c>
       <c r="N13" t="n">
-        <v>695.15</v>
+        <v>511.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1859.4</v>
+        <v>1670.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1859.4</v>
+        <v>1670.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>298.9</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>298.9</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2761,64 +2797,66 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1859.4</v>
+        <v>1969.4</v>
       </c>
       <c r="X13" t="n">
-        <v>1859.4</v>
+        <v>1969.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.45288693</v>
+        <v>-0.04171429</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.56167284</v>
+        <v>0.28000713</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.33965641</v>
+        <v>-0.02073661</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.36318248</v>
+        <v>-0.38934353</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4039907</v>
-      </c>
-      <c r="AD13" t="inlineStr"/>
+        <v>-0.13829568</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.79951836</v>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>-0.4039907</v>
+        <v>-0.0642847</v>
       </c>
       <c r="AH13" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AI13" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AJ13" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="AK13" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="AL13" t="n">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="AO13" t="n">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="AP13" t="n">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -2833,34 +2871,36 @@
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AX13" t="n">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="AY13" t="n">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.55696203</v>
+        <v>-0.14285714</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.5472973</v>
+        <v>0.49152542</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.31687243</v>
+        <v>-0.05109489</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0.35802469</v>
+        <v>-0.375</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.40532959</v>
-      </c>
-      <c r="BE13" t="inlineStr"/>
+        <v>-0.12114014</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.72093023</v>
+      </c>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="n">
-        <v>-0.40532959</v>
+        <v>-0.04310345</v>
       </c>
     </row>
     <row r="14">
@@ -2868,63 +2908,63 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1008252</v>
+        <v>1003034</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>metrocentro santa ana</t>
+          <t>Metrocentro San Salvador</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>97.75</v>
+        <v>205.7</v>
       </c>
       <c r="H14" t="n">
-        <v>97.75</v>
+        <v>205.7</v>
       </c>
       <c r="I14" t="n">
-        <v>264.5</v>
+        <v>371.8</v>
       </c>
       <c r="J14" t="n">
-        <v>264.5</v>
+        <v>371.8</v>
       </c>
       <c r="K14" t="n">
-        <v>542.15</v>
+        <v>490.75</v>
       </c>
       <c r="L14" t="n">
-        <v>542.15</v>
+        <v>490.75</v>
       </c>
       <c r="M14" t="n">
-        <v>724.5</v>
+        <v>632.45</v>
       </c>
       <c r="N14" t="n">
-        <v>724.5</v>
+        <v>632.45</v>
       </c>
       <c r="O14" t="n">
-        <v>1628.9</v>
+        <v>1700.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1628.9</v>
+        <v>1700.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.4</v>
+        <v>234.65</v>
       </c>
       <c r="R14" t="n">
-        <v>223.4</v>
+        <v>234.65</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2939,66 +2979,66 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1852.3</v>
+        <v>1935.35</v>
       </c>
       <c r="X14" t="n">
-        <v>1852.3</v>
+        <v>1935.35</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.65483757</v>
+        <v>-0.2517279</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.31591879</v>
+        <v>0.58448753</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.07430893</v>
+        <v>0.0617698</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.27384615</v>
+        <v>-0.1676099</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.06559587</v>
+        <v>-0.01781641</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.42375479</v>
+        <v>0.19688855</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="n">
-        <v>0.02421897</v>
+        <v>0.00402054</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AL14" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AM14" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AN14" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AO14" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="AP14" t="n">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="AQ14" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AR14" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -3013,36 +3053,36 @@
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AX14" t="n">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="AY14" t="n">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.63768116</v>
+        <v>-0.27536232</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.32989691</v>
+        <v>0.54716981</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.05691057</v>
+        <v>0.03703704</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.15441176</v>
+        <v>-0.15517241</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.14588235</v>
+        <v>-0.03217822</v>
       </c>
       <c r="BE14" t="n">
-        <v>2</v>
+        <v>0.16981132</v>
       </c>
       <c r="BF14" t="inlineStr"/>
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="n">
-        <v>-0.06802721</v>
+        <v>-0.00875274</v>
       </c>
     </row>
     <row r="15">
@@ -3050,69 +3090,69 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>1003034</v>
+        <v>1008252</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Metrocentro San Salvador</t>
+          <t>metrocentro santa ana</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>205.7</v>
+        <v>97.75</v>
       </c>
       <c r="H15" t="n">
-        <v>205.7</v>
+        <v>97.75</v>
       </c>
       <c r="I15" t="n">
-        <v>371.8</v>
+        <v>264.5</v>
       </c>
       <c r="J15" t="n">
-        <v>371.8</v>
+        <v>264.5</v>
       </c>
       <c r="K15" t="n">
-        <v>490.75</v>
+        <v>542.15</v>
       </c>
       <c r="L15" t="n">
-        <v>490.75</v>
+        <v>542.15</v>
       </c>
       <c r="M15" t="n">
-        <v>632.45</v>
+        <v>724.5</v>
       </c>
       <c r="N15" t="n">
-        <v>632.45</v>
+        <v>724.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1700.7</v>
+        <v>1628.9</v>
       </c>
       <c r="P15" t="n">
-        <v>1700.7</v>
+        <v>1628.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>260.35</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>260.35</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -3121,70 +3161,74 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1700.7</v>
+        <v>1902.1</v>
       </c>
       <c r="X15" t="n">
-        <v>1700.7</v>
+        <v>1902.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.2517279</v>
+        <v>-0.65483757</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.58448753</v>
+        <v>-0.31591879</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0617698</v>
+        <v>0.07430893</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.1676099</v>
+        <v>0.27384615</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.01781641</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
+        <v>-0.06559587</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.99003831</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.9506528400000001</v>
+      </c>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="n">
-        <v>-0.01781641</v>
+        <v>-0.08062255</v>
       </c>
       <c r="AH15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AM15" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AN15" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AO15" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AP15" t="n">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3193,34 +3237,38 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="AY15" t="n">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0.27536232</v>
+        <v>-0.63768116</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.54716981</v>
+        <v>-0.32989691</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.03703704</v>
+        <v>-0.05691057</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0.15517241</v>
+        <v>0.15441176</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.03217822</v>
-      </c>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
+        <v>-0.14588235</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>-0.9538461499999999</v>
+      </c>
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="n">
-        <v>-0.03217822</v>
+        <v>-0.16600791</v>
       </c>
     </row>
     <row r="16">
@@ -3228,21 +3276,21 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1003034</v>
+        <v>1003033</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Metrocentro San Salvador</t>
+          <t>La Gran Via</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3251,40 +3299,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>167.7</v>
+        <v>136.45</v>
       </c>
       <c r="H16" t="n">
-        <v>167.7</v>
+        <v>136.45</v>
       </c>
       <c r="I16" t="n">
-        <v>358.85</v>
+        <v>289.8</v>
       </c>
       <c r="J16" t="n">
-        <v>358.85</v>
+        <v>289.8</v>
       </c>
       <c r="K16" t="n">
-        <v>632.8</v>
+        <v>738</v>
       </c>
       <c r="L16" t="n">
-        <v>632.8</v>
+        <v>738</v>
       </c>
       <c r="M16" t="n">
-        <v>511.15</v>
+        <v>695.15</v>
       </c>
       <c r="N16" t="n">
-        <v>511.15</v>
+        <v>695.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1670.5</v>
+        <v>1859.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1670.5</v>
+        <v>1859.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>28.95</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3299,64 +3347,66 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1670.5</v>
+        <v>1888.35</v>
       </c>
       <c r="X16" t="n">
-        <v>1670.5</v>
+        <v>1888.35</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.04171429</v>
+        <v>-0.45288693</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.28000713</v>
+        <v>-0.56167284</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.02073661</v>
+        <v>-0.33965641</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.38934353</v>
+        <v>-0.36318248</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.13829568</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
+        <v>-0.4039907</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.8161904800000001</v>
+      </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="n">
-        <v>-0.13829568</v>
+        <v>-0.42380044</v>
       </c>
       <c r="AH16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AJ16" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AK16" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="n">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="AO16" t="n">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="AP16" t="n">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -3371,34 +3421,36 @@
         <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AX16" t="n">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="AY16" t="n">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.14285714</v>
+        <v>-0.55696203</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.49152542</v>
+        <v>-0.5472973</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.05109489</v>
+        <v>-0.31687243</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0.375</v>
+        <v>-0.35802469</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.12114014</v>
-      </c>
-      <c r="BE16" t="inlineStr"/>
+        <v>-0.40532959</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>-0.8</v>
+      </c>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="n">
-        <v>-0.12114014</v>
+        <v>-0.42629482</v>
       </c>
     </row>
     <row r="17">
@@ -3406,63 +3458,63 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1072609</v>
+        <v>1003033</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>galerias san salvador</t>
+          <t>La Gran Via</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dragon Ball Super: Super Heroe</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>180.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>180.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>330.4</v>
+        <v>406.7</v>
       </c>
       <c r="J17" t="n">
-        <v>330.4</v>
+        <v>406.7</v>
       </c>
       <c r="K17" t="n">
-        <v>443.4</v>
+        <v>565.1</v>
       </c>
       <c r="L17" t="n">
-        <v>443.4</v>
+        <v>565.1</v>
       </c>
       <c r="M17" t="n">
-        <v>524.4</v>
+        <v>496.7</v>
       </c>
       <c r="N17" t="n">
-        <v>524.4</v>
+        <v>496.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1479</v>
+        <v>1565.1</v>
       </c>
       <c r="P17" t="n">
-        <v>1479</v>
+        <v>1565.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.40000000000001</v>
+        <v>140.55</v>
       </c>
       <c r="R17" t="n">
-        <v>89.40000000000001</v>
+        <v>140.55</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3477,66 +3529,66 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1568.4</v>
+        <v>1705.65</v>
       </c>
       <c r="X17" t="n">
-        <v>1568.4</v>
+        <v>1705.65</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.81127349</v>
+        <v>-0.41894737</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.53983287</v>
+        <v>1.60121522</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.55748503</v>
+        <v>-0.39383213</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.18317757</v>
+        <v>-0.43276423</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.55451807</v>
+        <v>-0.26538371</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.60442478</v>
+        <v>0.19464513</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
-        <v>-0.55769882</v>
+        <v>-0.24130952</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="AK17" t="n">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="AP17" t="n">
-        <v>160</v>
+        <v>364</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
@@ -3551,36 +3603,36 @@
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AX17" t="n">
-        <v>170</v>
+        <v>404</v>
       </c>
       <c r="AY17" t="n">
-        <v>170</v>
+        <v>404</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.81188119</v>
+        <v>-0.46</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.54545455</v>
+        <v>1.45945946</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.56190476</v>
+        <v>-0.39534884</v>
       </c>
       <c r="BC17" t="n">
-        <v>-0.10447761</v>
+        <v>-0.45023697</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0.54285714</v>
+        <v>-0.29044834</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0.56521739</v>
+        <v>0.37931034</v>
       </c>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="n">
-        <v>-0.54423592</v>
+        <v>-0.25461255</v>
       </c>
     </row>
     <row r="18">
@@ -3588,63 +3640,63 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>1003033</v>
+        <v>1072609</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>La Gran Via</t>
+          <t>galerias san salvador</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>96.59999999999999</v>
+        <v>180.8</v>
       </c>
       <c r="H18" t="n">
-        <v>96.59999999999999</v>
+        <v>180.8</v>
       </c>
       <c r="I18" t="n">
-        <v>406.7</v>
+        <v>330.4</v>
       </c>
       <c r="J18" t="n">
-        <v>406.7</v>
+        <v>330.4</v>
       </c>
       <c r="K18" t="n">
-        <v>565.1</v>
+        <v>443.4</v>
       </c>
       <c r="L18" t="n">
-        <v>565.1</v>
+        <v>443.4</v>
       </c>
       <c r="M18" t="n">
-        <v>496.7</v>
+        <v>524.4</v>
       </c>
       <c r="N18" t="n">
-        <v>496.7</v>
+        <v>524.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1565.1</v>
+        <v>1479</v>
       </c>
       <c r="P18" t="n">
-        <v>1565.1</v>
+        <v>1479</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.4</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>104.4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -3659,64 +3711,66 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1565.1</v>
+        <v>1583.4</v>
       </c>
       <c r="X18" t="n">
-        <v>1565.1</v>
+        <v>1583.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.41894737</v>
+        <v>-0.81127349</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.60121522</v>
+        <v>-0.53983287</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.39383213</v>
+        <v>-0.55748503</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.43276423</v>
+        <v>-0.18317757</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.26538371</v>
-      </c>
-      <c r="AD18" t="inlineStr"/>
+        <v>-0.55451807</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.5380531</v>
+      </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="n">
-        <v>-0.26538371</v>
+        <v>-0.5534687</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AK18" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="AL18" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AN18" t="n">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="AP18" t="n">
-        <v>364</v>
+        <v>160</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
@@ -3731,34 +3785,36 @@
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="AY18" t="n">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.46</v>
+        <v>-0.81188119</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.45945946</v>
+        <v>-0.54545455</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.39534884</v>
+        <v>-0.56190476</v>
       </c>
       <c r="BC18" t="n">
-        <v>-0.45023697</v>
+        <v>-0.10447761</v>
       </c>
       <c r="BD18" t="n">
-        <v>-0.29044834</v>
-      </c>
-      <c r="BE18" t="inlineStr"/>
+        <v>-0.54285714</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>-0.47826087</v>
+      </c>
       <c r="BF18" t="inlineStr"/>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="n">
-        <v>-0.29044834</v>
+        <v>-0.53887399</v>
       </c>
     </row>
     <row r="19">
@@ -3766,63 +3822,63 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>1003040</v>
+        <v>1003035</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>multiplaza san salvador</t>
+          <t>Metrocentro San Miguel</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>152.75</v>
+        <v>227.15</v>
       </c>
       <c r="H19" t="n">
-        <v>152.75</v>
+        <v>227.15</v>
       </c>
       <c r="I19" t="n">
-        <v>215.65</v>
+        <v>276.1</v>
       </c>
       <c r="J19" t="n">
-        <v>215.65</v>
+        <v>276.1</v>
       </c>
       <c r="K19" t="n">
-        <v>670.55</v>
+        <v>370.7</v>
       </c>
       <c r="L19" t="n">
-        <v>670.55</v>
+        <v>370.7</v>
       </c>
       <c r="M19" t="n">
-        <v>384.3</v>
+        <v>549.45</v>
       </c>
       <c r="N19" t="n">
-        <v>384.3</v>
+        <v>549.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1423.25</v>
+        <v>1423.4</v>
       </c>
       <c r="P19" t="n">
-        <v>1423.25</v>
+        <v>1423.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.7</v>
+        <v>158.4</v>
       </c>
       <c r="R19" t="n">
-        <v>38.7</v>
+        <v>158.4</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3837,66 +3893,52 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1461.95</v>
+        <v>1581.8</v>
       </c>
       <c r="X19" t="n">
-        <v>1461.95</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>-0.01196636</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>-0.40820527</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.53848801</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>-0.38443056</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>-0.09872400000000001</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>-0.64834166</v>
-      </c>
+        <v>1581.8</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>-0.13453114</v>
-      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="AL19" t="n">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="n">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AO19" t="n">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AP19" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
@@ -3911,100 +3953,86 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AX19" t="n">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="AY19" t="n">
-        <v>287</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>-0.15384615</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>-0.48101266</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0.49425287</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>-0.38709677</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>-0.14893617</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>-0.69565217</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="n">
-        <v>-0.18465909</v>
-      </c>
+      <c r="BH19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>1003040</v>
+        <v>1003035</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>multiplaza san salvador</t>
+          <t>Metrocentro San Miguel</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>182.6</v>
+        <v>165.6</v>
       </c>
       <c r="H20" t="n">
-        <v>182.6</v>
+        <v>165.6</v>
       </c>
       <c r="I20" t="n">
-        <v>290.55</v>
+        <v>224.4</v>
       </c>
       <c r="J20" t="n">
-        <v>290.55</v>
+        <v>224.4</v>
       </c>
       <c r="K20" t="n">
-        <v>447.85</v>
+        <v>593.45</v>
       </c>
       <c r="L20" t="n">
-        <v>447.85</v>
+        <v>593.45</v>
       </c>
       <c r="M20" t="n">
-        <v>496</v>
+        <v>383.4</v>
       </c>
       <c r="N20" t="n">
-        <v>496</v>
+        <v>383.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1417</v>
+        <v>1366.85</v>
       </c>
       <c r="P20" t="n">
-        <v>1417</v>
+        <v>1366.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>26</v>
+        <v>203.35</v>
       </c>
       <c r="R20" t="n">
-        <v>26</v>
+        <v>203.35</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -4019,20 +4047,34 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1443</v>
+        <v>1570.2</v>
       </c>
       <c r="X20" t="n">
-        <v>1443</v>
-      </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+        <v>1570.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-0.1144385</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.41176471</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.26969697</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.74709501</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.83003079</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.37004662</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AG20" t="n">
+        <v>0.88567311</v>
+      </c>
       <c r="AH20" t="n">
         <v>40</v>
       </c>
@@ -4040,31 +4082,31 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AK20" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="AN20" t="n">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AO20" t="n">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="AP20" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -4082,31 +4124,45 @@
         <v>40</v>
       </c>
       <c r="AX20" t="n">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="AY20" t="n">
-        <v>297</v>
-      </c>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr"/>
+        <v>341</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>-0.11111111</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.39393939</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>2.28947368</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.82222222</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.8198757800000001</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.18181818</v>
+      </c>
       <c r="BF20" t="inlineStr"/>
       <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
+      <c r="BH20" t="n">
+        <v>0.8633879800000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>1003035</v>
+        <v>1003040</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Metrocentro San Miguel</t>
+          <t>multiplaza san salvador</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4116,55 +4172,55 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>227.15</v>
+        <v>182.6</v>
       </c>
       <c r="H21" t="n">
-        <v>227.15</v>
+        <v>182.6</v>
       </c>
       <c r="I21" t="n">
-        <v>276.1</v>
+        <v>290.55</v>
       </c>
       <c r="J21" t="n">
-        <v>276.1</v>
+        <v>290.55</v>
       </c>
       <c r="K21" t="n">
-        <v>370.7</v>
+        <v>447.85</v>
       </c>
       <c r="L21" t="n">
-        <v>370.7</v>
+        <v>447.85</v>
       </c>
       <c r="M21" t="n">
-        <v>549.45</v>
+        <v>496</v>
       </c>
       <c r="N21" t="n">
-        <v>549.45</v>
+        <v>496</v>
       </c>
       <c r="O21" t="n">
-        <v>1423.4</v>
+        <v>1417</v>
       </c>
       <c r="P21" t="n">
-        <v>1423.4</v>
+        <v>1417</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -4173,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1423.4</v>
+        <v>1555.4</v>
       </c>
       <c r="X21" t="n">
-        <v>1423.4</v>
+        <v>1555.4</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -4188,43 +4244,43 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AO21" t="n">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AP21" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4233,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AX21" t="n">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="AY21" t="n">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
@@ -4256,21 +4312,21 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>1003035</v>
+        <v>1003033</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Metrocentro San Miguel</t>
+          <t>La Gran Via</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>Tierra Santa El Ultimo Peregrino</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4279,40 +4335,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>165.6</v>
+        <v>305.6</v>
       </c>
       <c r="H22" t="n">
-        <v>165.6</v>
+        <v>305.6</v>
       </c>
       <c r="I22" t="n">
-        <v>224.4</v>
+        <v>106.85</v>
       </c>
       <c r="J22" t="n">
-        <v>224.4</v>
+        <v>106.85</v>
       </c>
       <c r="K22" t="n">
-        <v>593.45</v>
+        <v>442.95</v>
       </c>
       <c r="L22" t="n">
-        <v>593.45</v>
+        <v>442.95</v>
       </c>
       <c r="M22" t="n">
-        <v>383.4</v>
+        <v>320.6</v>
       </c>
       <c r="N22" t="n">
-        <v>383.4</v>
+        <v>320.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1366.85</v>
+        <v>1176</v>
       </c>
       <c r="P22" t="n">
-        <v>1366.85</v>
+        <v>1176</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>352.95</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>352.95</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -4327,64 +4383,52 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1366.85</v>
+        <v>1528.95</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.85</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-0.1144385</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.41176471</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.26969697</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.74709501</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0.83003079</v>
-      </c>
+        <v>1528.95</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="n">
-        <v>0.83003079</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="AM22" t="n">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="AN22" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AP22" t="n">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
@@ -4399,35 +4443,23 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AX22" t="n">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="AY22" t="n">
-        <v>293</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>-0.11111111</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0.39393939</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>2.28947368</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0.82222222</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0.8198757800000001</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="n">
-        <v>0.8198757800000001</v>
-      </c>
+      <c r="BH22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4487,10 +4519,10 @@
         <v>1337.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>167.95</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>167.95</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -4505,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1337.4</v>
+        <v>1505.35</v>
       </c>
       <c r="X23" t="n">
-        <v>1337.4</v>
+        <v>1505.35</v>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -4547,10 +4579,10 @@
         <v>297</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -4568,10 +4600,10 @@
         <v>55</v>
       </c>
       <c r="AX23" t="n">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="AY23" t="n">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
@@ -4588,16 +4620,16 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>1003033</v>
+        <v>1003040</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La Gran Via</t>
+          <t>multiplaza san salvador</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4607,50 +4639,50 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>105.65</v>
+        <v>152.75</v>
       </c>
       <c r="H24" t="n">
-        <v>105.65</v>
+        <v>152.75</v>
       </c>
       <c r="I24" t="n">
-        <v>261.65</v>
+        <v>215.65</v>
       </c>
       <c r="J24" t="n">
-        <v>261.65</v>
+        <v>215.65</v>
       </c>
       <c r="K24" t="n">
-        <v>524.55</v>
+        <v>670.55</v>
       </c>
       <c r="L24" t="n">
-        <v>524.55</v>
+        <v>670.55</v>
       </c>
       <c r="M24" t="n">
-        <v>389.85</v>
+        <v>384.3</v>
       </c>
       <c r="N24" t="n">
-        <v>389.85</v>
+        <v>384.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1281.7</v>
+        <v>1423.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1281.7</v>
+        <v>1423.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>34.75</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>34.75</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -4659,70 +4691,74 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1281.7</v>
+        <v>1496.7</v>
       </c>
       <c r="X24" t="n">
-        <v>1281.7</v>
+        <v>1496.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.2825</v>
+        <v>-0.01196636</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.01613833</v>
+        <v>-0.40820527</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.35216747</v>
+        <v>0.53848801</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.57182867</v>
+        <v>-0.38443056</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.29844823</v>
-      </c>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+        <v>-0.09872400000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.64834166</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.42371476</v>
+      </c>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="n">
-        <v>-0.29844823</v>
+        <v>-0.14449843</v>
       </c>
       <c r="AH24" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AI24" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AJ24" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AO24" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AP24" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -4731,34 +4767,38 @@
         <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AX24" t="n">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AY24" t="n">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4.6</v>
+        <v>-0.15384615</v>
       </c>
       <c r="BA24" t="n">
-        <v>1.94736842</v>
+        <v>-0.48101266</v>
       </c>
       <c r="BB24" t="n">
-        <v>-0.34302326</v>
+        <v>0.49425287</v>
       </c>
       <c r="BC24" t="n">
-        <v>-0.58333333</v>
+        <v>-0.38709677</v>
       </c>
       <c r="BD24" t="n">
-        <v>-0.295</v>
-      </c>
-      <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr"/>
+        <v>-0.14893617</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>-0.69565217</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>-0.4</v>
+      </c>
       <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="n">
-        <v>-0.295</v>
+        <v>-0.19060773</v>
       </c>
     </row>
     <row r="25">
@@ -4766,63 +4806,63 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>1072609</v>
+        <v>1003033</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>galerias san salvador</t>
+          <t>La Gran Via</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>114</v>
+        <v>105.65</v>
       </c>
       <c r="H25" t="n">
-        <v>114</v>
+        <v>105.65</v>
       </c>
       <c r="I25" t="n">
-        <v>462</v>
+        <v>261.65</v>
       </c>
       <c r="J25" t="n">
-        <v>462</v>
+        <v>261.65</v>
       </c>
       <c r="K25" t="n">
-        <v>537.6</v>
+        <v>524.55</v>
       </c>
       <c r="L25" t="n">
-        <v>537.6</v>
+        <v>524.55</v>
       </c>
       <c r="M25" t="n">
-        <v>154.8</v>
+        <v>389.85</v>
       </c>
       <c r="N25" t="n">
-        <v>154.8</v>
+        <v>389.85</v>
       </c>
       <c r="O25" t="n">
-        <v>1268.4</v>
+        <v>1281.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1268.4</v>
+        <v>1281.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -4837,52 +4877,66 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1268.4</v>
+        <v>1381.7</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.4</v>
-      </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+        <v>1381.7</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>4.2825</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2.01613833</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.35216747</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-0.57182867</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.29844823</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>-0.25345278</v>
+      </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>-0.29537457</v>
+      </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AJ25" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AL25" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="AM25" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="AP25" t="n">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -4897,86 +4951,100 @@
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="AY25" t="n">
-        <v>135</v>
-      </c>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
-      <c r="BE25" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.94736842</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>-0.34302326</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>-0.58333333</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>-0.295</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>-0.22580645</v>
+      </c>
       <c r="BF25" t="inlineStr"/>
       <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
+      <c r="BH25" t="n">
+        <v>-0.2900232</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1003040</v>
+        <v>1003034</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>multiplaza san salvador</t>
+          <t>Metrocentro San Salvador</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>99</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>99</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>271.8</v>
+        <v>233.85</v>
       </c>
       <c r="J26" t="n">
-        <v>271.8</v>
+        <v>233.85</v>
       </c>
       <c r="K26" t="n">
-        <v>383.9</v>
+        <v>425.1</v>
       </c>
       <c r="L26" t="n">
-        <v>383.9</v>
+        <v>425.1</v>
       </c>
       <c r="M26" t="n">
-        <v>457.2</v>
+        <v>457.5</v>
       </c>
       <c r="N26" t="n">
-        <v>457.2</v>
+        <v>457.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1211.9</v>
+        <v>1208.05</v>
       </c>
       <c r="P26" t="n">
-        <v>1211.9</v>
+        <v>1208.05</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.1</v>
+        <v>171.55</v>
       </c>
       <c r="R26" t="n">
-        <v>22.1</v>
+        <v>171.55</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -4991,66 +5059,66 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1234</v>
+        <v>1379.6</v>
       </c>
       <c r="X26" t="n">
-        <v>1234</v>
+        <v>1379.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05233697</v>
+        <v>2.31884058</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.1255771</v>
+        <v>0.38046045</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.57236477</v>
+        <v>0.12341438</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.18348852</v>
+        <v>-0.08270677</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.544837</v>
+        <v>0.12465671</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.74462081</v>
+        <v>2.94367816</v>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="n">
-        <v>0.43106131</v>
+        <v>0.2343757</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AK26" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AL26" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AM26" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AN26" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AO26" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AP26" t="n">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AS26" t="n">
         <v>0</v>
@@ -5065,36 +5133,36 @@
         <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="AY26" t="n">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="AZ26" t="n">
-        <v>-0.04444444</v>
+        <v>2.66666667</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.1875</v>
+        <v>0.43243243</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.53684211</v>
+        <v>0.06666667</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.2804878</v>
+        <v>-0.1092437</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.5408805</v>
+        <v>0.09920635</v>
       </c>
       <c r="BE26" t="n">
-        <v>-0.65714286</v>
+        <v>2.72727273</v>
       </c>
       <c r="BF26" t="inlineStr"/>
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="n">
-        <v>0.42209632</v>
+        <v>0.20912548</v>
       </c>
     </row>
     <row r="27">
@@ -5155,16 +5223,16 @@
         <v>1188.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="R27" t="n">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -5173,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1208.25</v>
+        <v>1331.25</v>
       </c>
       <c r="X27" t="n">
-        <v>1208.25</v>
+        <v>1331.25</v>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -5215,16 +5283,16 @@
         <v>259</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -5236,10 +5304,10 @@
         <v>35</v>
       </c>
       <c r="AX27" t="n">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="AY27" t="n">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
@@ -5256,69 +5324,69 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>1003034</v>
+        <v>1003040</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Metrocentro San Salvador</t>
+          <t>multiplaza san salvador</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>91.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="H28" t="n">
-        <v>91.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="I28" t="n">
-        <v>233.85</v>
+        <v>271.8</v>
       </c>
       <c r="J28" t="n">
-        <v>233.85</v>
+        <v>271.8</v>
       </c>
       <c r="K28" t="n">
-        <v>425.1</v>
+        <v>383.9</v>
       </c>
       <c r="L28" t="n">
-        <v>425.1</v>
+        <v>383.9</v>
       </c>
       <c r="M28" t="n">
-        <v>457.5</v>
+        <v>457.2</v>
       </c>
       <c r="N28" t="n">
-        <v>457.5</v>
+        <v>457.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1208.05</v>
+        <v>1211.9</v>
       </c>
       <c r="P28" t="n">
-        <v>1208.05</v>
+        <v>1211.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -5327,70 +5395,74 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.05</v>
+        <v>1292</v>
       </c>
       <c r="X28" t="n">
-        <v>1208.05</v>
+        <v>1292</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.31884058</v>
+        <v>0.05233697</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.38046045</v>
+        <v>0.1255771</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.12341438</v>
+        <v>0.57236477</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.08270677</v>
+        <v>1.18348852</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.12465671</v>
-      </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
+        <v>0.544837</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-0.28606702</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>-0.67536232</v>
+      </c>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="n">
-        <v>0.12465671</v>
+        <v>0.41308522</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AK28" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AL28" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="AO28" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="AP28" t="n">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -5399,34 +5471,38 @@
         <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AY28" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2.66666667</v>
+        <v>-0.04444444</v>
       </c>
       <c r="BA28" t="n">
-        <v>0.43243243</v>
+        <v>0.1875</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.06666667</v>
+        <v>0.53684211</v>
       </c>
       <c r="BC28" t="n">
-        <v>-0.1092437</v>
+        <v>1.2804878</v>
       </c>
       <c r="BD28" t="n">
-        <v>0.09920635</v>
-      </c>
-      <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr"/>
+        <v>0.5408805</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>-0.22857143</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>-0.68421053</v>
+      </c>
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="n">
-        <v>0.09920635</v>
+        <v>0.40591398</v>
       </c>
     </row>
     <row r="29">
@@ -5434,57 +5510,57 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>1003033</v>
+        <v>1072609</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>La Gran Via</t>
+          <t>galerias san salvador</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tierra Santa El Ultimo Peregrino</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>305.6</v>
+        <v>114</v>
       </c>
       <c r="H29" t="n">
-        <v>305.6</v>
+        <v>114</v>
       </c>
       <c r="I29" t="n">
-        <v>106.85</v>
+        <v>462</v>
       </c>
       <c r="J29" t="n">
-        <v>106.85</v>
+        <v>462</v>
       </c>
       <c r="K29" t="n">
-        <v>442.95</v>
+        <v>537.6</v>
       </c>
       <c r="L29" t="n">
-        <v>442.95</v>
+        <v>537.6</v>
       </c>
       <c r="M29" t="n">
-        <v>320.6</v>
+        <v>154.8</v>
       </c>
       <c r="N29" t="n">
-        <v>320.6</v>
+        <v>154.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1176</v>
+        <v>1268.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1176</v>
+        <v>1268.4</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -5505,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1176</v>
+        <v>1268.4</v>
       </c>
       <c r="X29" t="n">
-        <v>1176</v>
+        <v>1268.4</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -5520,31 +5596,31 @@
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AL29" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="AM29" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -5565,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="AY29" t="n">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
@@ -5641,10 +5717,10 @@
         <v>1074.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -5659,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1074.9</v>
+        <v>1136.1</v>
       </c>
       <c r="X30" t="n">
-        <v>1074.9</v>
+        <v>1136.1</v>
       </c>
       <c r="Y30" t="n">
         <v>-0.06444444000000001</v>
@@ -5679,11 +5755,13 @@
       <c r="AC30" t="n">
         <v>-0.51646424</v>
       </c>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AD30" t="n">
+        <v>-0.575</v>
+      </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="n">
-        <v>-0.51646424</v>
+        <v>-0.5200253500000001</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -5713,10 +5791,10 @@
         <v>115</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
@@ -5734,10 +5812,10 @@
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AY30" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AZ30" t="n">
         <v>-0.15</v>
@@ -5754,11 +5832,13 @@
       <c r="BD30" t="n">
         <v>-0.53252033</v>
       </c>
-      <c r="BE30" t="inlineStr"/>
+      <c r="BE30" t="n">
+        <v>-0.6</v>
+      </c>
       <c r="BF30" t="inlineStr"/>
       <c r="BG30" t="inlineStr"/>
       <c r="BH30" t="n">
-        <v>-0.53252033</v>
+        <v>-0.53639847</v>
       </c>
     </row>
     <row r="31">
@@ -5819,10 +5899,10 @@
         <v>1003.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.95</v>
+        <v>100.85</v>
       </c>
       <c r="R31" t="n">
-        <v>48.95</v>
+        <v>100.85</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -5837,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1052.4</v>
+        <v>1104.3</v>
       </c>
       <c r="X31" t="n">
-        <v>1052.4</v>
+        <v>1104.3</v>
       </c>
       <c r="Y31" t="n">
         <v>0.13253012</v>
@@ -5858,12 +5938,12 @@
         <v>0.05754334</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.17383966</v>
+        <v>0.7021096999999999</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="n">
-        <v>0.04394405</v>
+        <v>0.09542704</v>
       </c>
       <c r="AH31" t="n">
         <v>22</v>
@@ -5893,10 +5973,10 @@
         <v>232</v>
       </c>
       <c r="AQ31" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>0</v>
@@ -5914,10 +5994,10 @@
         <v>22</v>
       </c>
       <c r="AX31" t="n">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AY31" t="n">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AZ31" t="n">
         <v>0.04761905</v>
@@ -5935,12 +6015,12 @@
         <v>0.03111111</v>
       </c>
       <c r="BE31" t="n">
-        <v>-0.23076923</v>
+        <v>0.69230769</v>
       </c>
       <c r="BF31" t="inlineStr"/>
       <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="n">
-        <v>0.01680672</v>
+        <v>0.06722689</v>
       </c>
     </row>
     <row r="32">
@@ -6001,10 +6081,10 @@
         <v>991.55</v>
       </c>
       <c r="Q32" t="n">
-        <v>20.8</v>
+        <v>49.8</v>
       </c>
       <c r="R32" t="n">
-        <v>20.8</v>
+        <v>49.8</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -6019,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1012.35</v>
+        <v>1041.35</v>
       </c>
       <c r="X32" t="n">
-        <v>1012.35</v>
+        <v>1041.35</v>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -6061,10 +6141,10 @@
         <v>197</v>
       </c>
       <c r="AQ32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
@@ -6082,10 +6162,10 @@
         <v>41</v>
       </c>
       <c r="AX32" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AY32" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
@@ -6102,21 +6182,21 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>1008252</v>
+        <v>1003039</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>metrocentro santa ana</t>
+          <t>galerias san salvador</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6125,46 +6205,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>152.35</v>
+        <v>160.25</v>
       </c>
       <c r="H33" t="n">
-        <v>152.35</v>
+        <v>160.25</v>
       </c>
       <c r="I33" t="n">
-        <v>133.6</v>
+        <v>236.7</v>
       </c>
       <c r="J33" t="n">
-        <v>133.6</v>
+        <v>236.7</v>
       </c>
       <c r="K33" t="n">
-        <v>328.9</v>
+        <v>305</v>
       </c>
       <c r="L33" t="n">
-        <v>328.9</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
-        <v>248.9</v>
+        <v>213.9</v>
       </c>
       <c r="N33" t="n">
-        <v>248.9</v>
+        <v>213.9</v>
       </c>
       <c r="O33" t="n">
-        <v>863.75</v>
+        <v>915.85</v>
       </c>
       <c r="P33" t="n">
-        <v>863.75</v>
+        <v>915.85</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.3</v>
+        <v>108</v>
       </c>
       <c r="R33" t="n">
-        <v>83.3</v>
+        <v>108</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -6173,58 +6253,74 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>947.05</v>
+        <v>1033.85</v>
       </c>
       <c r="X33" t="n">
-        <v>947.05</v>
-      </c>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
+        <v>1033.85</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-0.35370034</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0.44358251</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.69535035</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-0.68878219</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.61222373</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-0.30164888</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>-0.96421542</v>
+      </c>
       <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
+      <c r="AG33" t="n">
+        <v>-0.6302264</v>
+      </c>
       <c r="AH33" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI33" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="AL33" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AM33" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AN33" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AO33" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AP33" t="n">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AQ33" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AR33" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AS33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -6233,44 +6329,60 @@
         <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AX33" t="n">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AY33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
-      <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="inlineStr"/>
+        <v>227</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>-0.33928571</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>-0.44329897</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>-0.7038835</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>-0.67132867</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>-0.60358566</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>-0.27777778</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>-0.96774194</v>
+      </c>
       <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
+      <c r="BH33" t="n">
+        <v>-0.62166667</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>1003040</v>
+        <v>1008252</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>multiplaza san salvador</t>
+          <t>metrocentro santa ana</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6279,40 +6391,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50.9</v>
+        <v>230.2</v>
       </c>
       <c r="H34" t="n">
-        <v>50.9</v>
+        <v>230.2</v>
       </c>
       <c r="I34" t="n">
-        <v>113.35</v>
+        <v>186.1</v>
       </c>
       <c r="J34" t="n">
-        <v>113.35</v>
+        <v>186.1</v>
       </c>
       <c r="K34" t="n">
-        <v>201.3</v>
+        <v>265</v>
       </c>
       <c r="L34" t="n">
-        <v>201.3</v>
+        <v>265</v>
       </c>
       <c r="M34" t="n">
-        <v>484.5</v>
+        <v>220</v>
       </c>
       <c r="N34" t="n">
-        <v>484.5</v>
+        <v>220</v>
       </c>
       <c r="O34" t="n">
-        <v>850.05</v>
+        <v>901.3</v>
       </c>
       <c r="P34" t="n">
-        <v>850.05</v>
+        <v>901.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.45</v>
+        <v>131</v>
       </c>
       <c r="R34" t="n">
-        <v>87.45</v>
+        <v>131</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -6327,66 +6439,52 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>937.5</v>
+        <v>1032.3</v>
       </c>
       <c r="X34" t="n">
-        <v>937.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>-0.40152851</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0.61467236</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>-0.55370801</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.15770609</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>-0.17052108</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>-0.34494382</v>
-      </c>
+        <v>1032.3</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="n">
-        <v>-0.19062419</v>
-      </c>
+      <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AJ34" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AL34" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AM34" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AN34" t="n">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AO34" t="n">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="AP34" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AQ34" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AR34" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AS34" t="n">
         <v>0</v>
@@ -6401,100 +6499,86 @@
         <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AX34" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY34" t="n">
-        <v>209</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>-0.42105263</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>-0.50515464</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>0.15730337</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>-0.13574661</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>-0.4</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
       <c r="BF34" t="inlineStr"/>
       <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="n">
-        <v>-0.16733068</v>
-      </c>
+      <c r="BH34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>1008252</v>
+        <v>1003033</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>metrocentro santa ana</t>
+          <t>La Gran Via</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>Elvis</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>230.2</v>
+        <v>87.7</v>
       </c>
       <c r="H35" t="n">
-        <v>230.2</v>
+        <v>87.7</v>
       </c>
       <c r="I35" t="n">
-        <v>186.1</v>
+        <v>232.8</v>
       </c>
       <c r="J35" t="n">
-        <v>186.1</v>
+        <v>232.8</v>
       </c>
       <c r="K35" t="n">
-        <v>265</v>
+        <v>426.4</v>
       </c>
       <c r="L35" t="n">
-        <v>265</v>
+        <v>426.4</v>
       </c>
       <c r="M35" t="n">
-        <v>220</v>
+        <v>145.8</v>
       </c>
       <c r="N35" t="n">
-        <v>220</v>
+        <v>145.8</v>
       </c>
       <c r="O35" t="n">
-        <v>901.3</v>
+        <v>892.7</v>
       </c>
       <c r="P35" t="n">
-        <v>901.3</v>
+        <v>892.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="R35" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -6509,52 +6593,66 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>931.3</v>
+        <v>1017.7</v>
       </c>
       <c r="X35" t="n">
-        <v>931.3</v>
-      </c>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+        <v>1017.7</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.62001733</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.10924048</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.61148904</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.10653858</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.15703192</v>
+      </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
+      <c r="AG35" t="n">
+        <v>0.17693998</v>
+      </c>
       <c r="AH35" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AK35" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AL35" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AM35" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AN35" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AO35" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AP35" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AQ35" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AR35" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AS35" t="n">
         <v>0</v>
@@ -6569,44 +6667,58 @@
         <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AX35" t="n">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="AY35" t="n">
-        <v>194</v>
-      </c>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="inlineStr"/>
+        <v>224</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>-0.55932203</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>-0.10909091</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.61818182</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0.08379888000000001</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0.66666667</v>
+      </c>
       <c r="BF35" t="inlineStr"/>
       <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="inlineStr"/>
+      <c r="BH35" t="n">
+        <v>0.13705584</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>1003039</v>
+        <v>1008252</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>galerias san salvador</t>
+          <t>metrocentro santa ana</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6615,46 +6727,46 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>160.25</v>
+        <v>152.35</v>
       </c>
       <c r="H36" t="n">
-        <v>160.25</v>
+        <v>152.35</v>
       </c>
       <c r="I36" t="n">
-        <v>236.7</v>
+        <v>133.6</v>
       </c>
       <c r="J36" t="n">
-        <v>236.7</v>
+        <v>133.6</v>
       </c>
       <c r="K36" t="n">
-        <v>305</v>
+        <v>328.9</v>
       </c>
       <c r="L36" t="n">
-        <v>305</v>
+        <v>328.9</v>
       </c>
       <c r="M36" t="n">
-        <v>213.9</v>
+        <v>248.9</v>
       </c>
       <c r="N36" t="n">
-        <v>213.9</v>
+        <v>248.9</v>
       </c>
       <c r="O36" t="n">
-        <v>915.85</v>
+        <v>863.75</v>
       </c>
       <c r="P36" t="n">
-        <v>915.85</v>
+        <v>863.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>128.3</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>128.3</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -6663,70 +6775,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>915.85</v>
+        <v>1002.05</v>
       </c>
       <c r="X36" t="n">
-        <v>915.85</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>-0.35370034</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>-0.44358251</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>-0.69535035</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>-0.68878219</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>-0.61222373</v>
-      </c>
+        <v>1002.05</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="n">
-        <v>-0.61222373</v>
-      </c>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ36" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="AK36" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AM36" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AN36" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AO36" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AP36" t="n">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -6735,51 +6835,39 @@
         <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AX36" t="n">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AY36" t="n">
-        <v>199</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>-0.33928571</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>-0.44329897</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>-0.7038835</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>-0.67132867</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>-0.60358566</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
       <c r="BE36" t="inlineStr"/>
       <c r="BF36" t="inlineStr"/>
       <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="n">
-        <v>-0.60358566</v>
-      </c>
+      <c r="BH36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>1003033</v>
+        <v>1003040</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>La Gran Via</t>
+          <t>multiplaza san salvador</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Elvis</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6789,44 +6877,44 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>87.7</v>
+        <v>50.9</v>
       </c>
       <c r="H37" t="n">
-        <v>87.7</v>
+        <v>50.9</v>
       </c>
       <c r="I37" t="n">
-        <v>232.8</v>
+        <v>113.35</v>
       </c>
       <c r="J37" t="n">
-        <v>232.8</v>
+        <v>113.35</v>
       </c>
       <c r="K37" t="n">
-        <v>426.4</v>
+        <v>201.3</v>
       </c>
       <c r="L37" t="n">
-        <v>426.4</v>
+        <v>201.3</v>
       </c>
       <c r="M37" t="n">
-        <v>145.8</v>
+        <v>484.5</v>
       </c>
       <c r="N37" t="n">
-        <v>145.8</v>
+        <v>484.5</v>
       </c>
       <c r="O37" t="n">
-        <v>892.7</v>
+        <v>850.05</v>
       </c>
       <c r="P37" t="n">
-        <v>892.7</v>
+        <v>850.05</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -6841,64 +6929,66 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>892.7</v>
+        <v>999.0500000000001</v>
       </c>
       <c r="X37" t="n">
-        <v>892.7</v>
+        <v>999.05</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.62001733</v>
+        <v>-0.40152851</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.10924048</v>
+        <v>0.61467236</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.61148904</v>
+        <v>-0.55370801</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.916</v>
+        <v>0.15770609</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.10653858</v>
-      </c>
-      <c r="AD37" t="inlineStr"/>
+        <v>-0.17052108</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.11610487</v>
+      </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="n">
-        <v>0.10653858</v>
+        <v>-0.13748597</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AI37" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AK37" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AM37" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="AN37" t="n">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="AO37" t="n">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="AP37" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AS37" t="n">
         <v>0</v>
@@ -6913,34 +7003,36 @@
         <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AX37" t="n">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="AY37" t="n">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="AZ37" t="n">
-        <v>-0.55932203</v>
+        <v>-0.42105263</v>
       </c>
       <c r="BA37" t="n">
-        <v>-0.10909091</v>
+        <v>0.8125</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.61818182</v>
+        <v>-0.50515464</v>
       </c>
       <c r="BC37" t="n">
-        <v>2</v>
+        <v>0.15730337</v>
       </c>
       <c r="BD37" t="n">
-        <v>0.08379888000000001</v>
-      </c>
-      <c r="BE37" t="inlineStr"/>
+        <v>-0.13574661</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0.06666667</v>
+      </c>
       <c r="BF37" t="inlineStr"/>
       <c r="BG37" t="inlineStr"/>
       <c r="BH37" t="n">
-        <v>0.08379888000000001</v>
+        <v>-0.11155378</v>
       </c>
     </row>
     <row r="38">
@@ -7001,10 +7093,10 @@
         <v>679.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -7019,10 +7111,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>679.5</v>
+        <v>775.2</v>
       </c>
       <c r="X38" t="n">
-        <v>679.5</v>
+        <v>775.2</v>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -7061,10 +7153,10 @@
         <v>144</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS38" t="n">
         <v>0</v>
@@ -7082,10 +7174,10 @@
         <v>18</v>
       </c>
       <c r="AX38" t="n">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AY38" t="n">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
@@ -7155,10 +7247,10 @@
         <v>601</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>54.45</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>54.45</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -7173,10 +7265,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>601</v>
+        <v>655.45</v>
       </c>
       <c r="X39" t="n">
-        <v>601</v>
+        <v>655.45</v>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -7215,10 +7307,10 @@
         <v>127</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS39" t="n">
         <v>0</v>
@@ -7236,10 +7328,10 @@
         <v>33</v>
       </c>
       <c r="AX39" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AY39" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
@@ -7309,10 +7401,10 @@
         <v>577.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.8</v>
+        <v>60</v>
       </c>
       <c r="R40" t="n">
-        <v>17.8</v>
+        <v>60</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -7327,10 +7419,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>595.05</v>
+        <v>637.25</v>
       </c>
       <c r="X40" t="n">
-        <v>595.05</v>
+        <v>637.25</v>
       </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -7369,10 +7461,10 @@
         <v>125</v>
       </c>
       <c r="AQ40" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AR40" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AS40" t="n">
         <v>0</v>
@@ -7390,10 +7482,10 @@
         <v>23</v>
       </c>
       <c r="AX40" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AY40" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
@@ -7463,10 +7555,10 @@
         <v>525.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -7481,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>525.5</v>
+        <v>553.5</v>
       </c>
       <c r="X41" t="n">
-        <v>525.5</v>
+        <v>553.5</v>
       </c>
       <c r="Y41" t="n">
         <v>0.07317073</v>
@@ -7501,11 +7593,13 @@
       <c r="AC41" t="n">
         <v>0.83037269</v>
       </c>
-      <c r="AD41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>1.82828283</v>
+      </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="n">
-        <v>0.83037269</v>
+        <v>0.86363636</v>
       </c>
       <c r="AH41" t="n">
         <v>7</v>
@@ -7535,10 +7629,10 @@
         <v>108</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS41" t="n">
         <v>0</v>
@@ -7556,10 +7650,10 @@
         <v>7</v>
       </c>
       <c r="AX41" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AY41" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AZ41" t="n">
         <v>0</v>
@@ -7576,11 +7670,13 @@
       <c r="BD41" t="n">
         <v>0.8</v>
       </c>
-      <c r="BE41" t="inlineStr"/>
+      <c r="BE41" t="n">
+        <v>2</v>
+      </c>
       <c r="BF41" t="inlineStr"/>
       <c r="BG41" t="inlineStr"/>
       <c r="BH41" t="n">
-        <v>0.8</v>
+        <v>0.83870968</v>
       </c>
     </row>
     <row r="42">
@@ -7588,63 +7684,63 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>1003040</v>
+        <v>1003034</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>multiplaza san salvador</t>
+          <t>Metrocentro San Salvador</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>102</v>
+        <v>157.3</v>
       </c>
       <c r="H42" t="n">
-        <v>102</v>
+        <v>157.3</v>
       </c>
       <c r="I42" t="n">
-        <v>50</v>
+        <v>74.25</v>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>74.25</v>
       </c>
       <c r="K42" t="n">
-        <v>155</v>
+        <v>108.9</v>
       </c>
       <c r="L42" t="n">
-        <v>155</v>
+        <v>108.9</v>
       </c>
       <c r="M42" t="n">
-        <v>75</v>
+        <v>128.6</v>
       </c>
       <c r="N42" t="n">
-        <v>75</v>
+        <v>128.6</v>
       </c>
       <c r="O42" t="n">
-        <v>382</v>
+        <v>469.05</v>
       </c>
       <c r="P42" t="n">
-        <v>382</v>
+        <v>469.05</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.9</v>
+        <v>49.5</v>
       </c>
       <c r="R42" t="n">
-        <v>117.9</v>
+        <v>49.5</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -7659,127 +7755,99 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>499.9</v>
+        <v>518.55</v>
       </c>
       <c r="X42" t="n">
-        <v>499.9</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>-0.46916472</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>-0.7747747699999999</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>-0.3476431</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>-0.5543671999999999</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>-0.53417475</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.20183486</v>
-      </c>
+        <v>518.55</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="n">
-        <v>-0.45553559</v>
-      </c>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AI42" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AJ42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>98</v>
+      </c>
+      <c r="AQ42" t="n">
         <v>10</v>
       </c>
-      <c r="AK42" t="n">
+      <c r="AR42" t="n">
         <v>10</v>
       </c>
-      <c r="AL42" t="n">
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
         <v>32</v>
       </c>
-      <c r="AM42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>80</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>22</v>
-      </c>
       <c r="AX42" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AY42" t="n">
-        <v>105</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>-0.46341463</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>-0.79166667</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>-0.58974359</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>-0.5505618</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0.19047619</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
       <c r="BF42" t="inlineStr"/>
       <c r="BG42" t="inlineStr"/>
-      <c r="BH42" t="n">
-        <v>-0.47236181</v>
-      </c>
+      <c r="BH42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>1003039</v>
+        <v>1003034</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>galerias san salvador</t>
+          <t>Metrocentro San Salvador</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>El Telefono Negro</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -7789,44 +7857,44 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>26.95</v>
+        <v>14.7</v>
       </c>
       <c r="H43" t="n">
-        <v>26.95</v>
+        <v>14.7</v>
       </c>
       <c r="I43" t="n">
-        <v>38.8</v>
+        <v>79.2</v>
       </c>
       <c r="J43" t="n">
-        <v>38.8</v>
+        <v>79.2</v>
       </c>
       <c r="K43" t="n">
-        <v>180.65</v>
+        <v>249.25</v>
       </c>
       <c r="L43" t="n">
-        <v>180.65</v>
+        <v>249.25</v>
       </c>
       <c r="M43" t="n">
-        <v>217.95</v>
+        <v>92.7</v>
       </c>
       <c r="N43" t="n">
-        <v>217.95</v>
+        <v>92.7</v>
       </c>
       <c r="O43" t="n">
-        <v>464.35</v>
+        <v>435.85</v>
       </c>
       <c r="P43" t="n">
-        <v>464.35</v>
+        <v>435.85</v>
       </c>
       <c r="Q43" t="n">
-        <v>27</v>
+        <v>79.2</v>
       </c>
       <c r="R43" t="n">
-        <v>27</v>
+        <v>79.2</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -7841,66 +7909,66 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>491.35</v>
+        <v>515.05</v>
       </c>
       <c r="X43" t="n">
-        <v>491.35</v>
+        <v>515.05</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.78821218</v>
+        <v>-0.88578089</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.81911422</v>
+        <v>-0.11111111</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.42605242</v>
+        <v>0.12502821</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.62759504</v>
+        <v>-0.65975408</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.62605194</v>
+        <v>-0.38767912</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.7972973</v>
+        <v>0.23076923</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="n">
-        <v>-0.64264155</v>
+        <v>-0.33640405</v>
       </c>
       <c r="AH43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK43" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AL43" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AM43" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AN43" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AO43" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AP43" t="n">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="AQ43" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AR43" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
@@ -7915,36 +7983,36 @@
         <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX43" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AY43" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AZ43" t="n">
-        <v>-0.8125</v>
+        <v>-0.86666667</v>
       </c>
       <c r="BA43" t="n">
-        <v>-0.82352941</v>
+        <v>-0.05555556</v>
       </c>
       <c r="BB43" t="n">
-        <v>-0.43037975</v>
+        <v>0.15555556</v>
       </c>
       <c r="BC43" t="n">
-        <v>-0.65771812</v>
+        <v>-0.6779661</v>
       </c>
       <c r="BD43" t="n">
-        <v>-0.6430868199999999</v>
+        <v>-0.39473684</v>
       </c>
       <c r="BE43" t="n">
-        <v>-0.74193548</v>
+        <v>0.2</v>
       </c>
       <c r="BF43" t="inlineStr"/>
       <c r="BG43" t="inlineStr"/>
       <c r="BH43" t="n">
-        <v>-0.65204678</v>
+        <v>-0.34131737</v>
       </c>
     </row>
     <row r="44">
@@ -7952,63 +8020,63 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>1003034</v>
+        <v>1003040</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Metrocentro San Salvador</t>
+          <t>multiplaza san salvador</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>157.3</v>
+        <v>102</v>
       </c>
       <c r="H44" t="n">
-        <v>157.3</v>
+        <v>102</v>
       </c>
       <c r="I44" t="n">
-        <v>74.25</v>
+        <v>50</v>
       </c>
       <c r="J44" t="n">
-        <v>74.25</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>108.9</v>
+        <v>155</v>
       </c>
       <c r="L44" t="n">
-        <v>108.9</v>
+        <v>155</v>
       </c>
       <c r="M44" t="n">
-        <v>128.6</v>
+        <v>75</v>
       </c>
       <c r="N44" t="n">
-        <v>128.6</v>
+        <v>75</v>
       </c>
       <c r="O44" t="n">
-        <v>469.05</v>
+        <v>382</v>
       </c>
       <c r="P44" t="n">
-        <v>469.05</v>
+        <v>382</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>117.9</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>117.9</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -8023,52 +8091,66 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>469.05</v>
+        <v>499.9</v>
       </c>
       <c r="X44" t="n">
-        <v>469.05</v>
-      </c>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
+        <v>499.9</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-0.46916472</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-0.7747747699999999</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>-0.3476431</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>-0.5543671999999999</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-0.53417475</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.20183486</v>
+      </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
+      <c r="AG44" t="n">
+        <v>-0.45553559</v>
+      </c>
       <c r="AH44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL44" t="n">
         <v>32</v>
       </c>
-      <c r="AI44" t="n">
+      <c r="AM44" t="n">
         <v>32</v>
       </c>
-      <c r="AJ44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>23</v>
-      </c>
       <c r="AN44" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AO44" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AP44" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS44" t="n">
         <v>0</v>
@@ -8083,39 +8165,53 @@
         <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AX44" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AY44" t="n">
-        <v>98</v>
-      </c>
-      <c r="AZ44" t="inlineStr"/>
-      <c r="BA44" t="inlineStr"/>
-      <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="inlineStr"/>
-      <c r="BD44" t="inlineStr"/>
-      <c r="BE44" t="inlineStr"/>
+        <v>105</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>-0.46341463</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>-0.79166667</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>-0.58974359</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>-0.5505618</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0.19047619</v>
+      </c>
       <c r="BF44" t="inlineStr"/>
       <c r="BG44" t="inlineStr"/>
-      <c r="BH44" t="inlineStr"/>
+      <c r="BH44" t="n">
+        <v>-0.47236181</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>1003034</v>
+        <v>1003039</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Metrocentro San Salvador</t>
+          <t>galerias san salvador</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>El Telefono Negro</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -8125,44 +8221,44 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>14.7</v>
+        <v>26.95</v>
       </c>
       <c r="H45" t="n">
-        <v>14.7</v>
+        <v>26.95</v>
       </c>
       <c r="I45" t="n">
-        <v>79.2</v>
+        <v>38.8</v>
       </c>
       <c r="J45" t="n">
-        <v>79.2</v>
+        <v>38.8</v>
       </c>
       <c r="K45" t="n">
-        <v>249.25</v>
+        <v>180.65</v>
       </c>
       <c r="L45" t="n">
-        <v>249.25</v>
+        <v>180.65</v>
       </c>
       <c r="M45" t="n">
-        <v>92.7</v>
+        <v>217.95</v>
       </c>
       <c r="N45" t="n">
-        <v>92.7</v>
+        <v>217.95</v>
       </c>
       <c r="O45" t="n">
-        <v>435.85</v>
+        <v>464.35</v>
       </c>
       <c r="P45" t="n">
-        <v>435.85</v>
+        <v>464.35</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -8177,64 +8273,66 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>435.85</v>
+        <v>491.35</v>
       </c>
       <c r="X45" t="n">
-        <v>435.85</v>
+        <v>491.35</v>
       </c>
       <c r="Y45" t="n">
-        <v>-0.88578089</v>
+        <v>-0.78821218</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.11111111</v>
+        <v>-0.81911422</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.12502821</v>
+        <v>-0.42605242</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.65975408</v>
+        <v>-0.62759504</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.38767912</v>
-      </c>
-      <c r="AD45" t="inlineStr"/>
+        <v>-0.62605194</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.7972973</v>
+      </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="n">
-        <v>-0.38767912</v>
+        <v>-0.64264155</v>
       </c>
       <c r="AH45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ45" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AK45" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AL45" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AN45" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AO45" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AP45" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS45" t="n">
         <v>0</v>
@@ -8249,34 +8347,36 @@
         <v>0</v>
       </c>
       <c r="AW45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX45" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="AY45" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="AZ45" t="n">
-        <v>-0.86666667</v>
+        <v>-0.8125</v>
       </c>
       <c r="BA45" t="n">
-        <v>-0.05555556</v>
+        <v>-0.82352941</v>
       </c>
       <c r="BB45" t="n">
-        <v>0.15555556</v>
+        <v>-0.43037975</v>
       </c>
       <c r="BC45" t="n">
-        <v>-0.6779661</v>
+        <v>-0.65771812</v>
       </c>
       <c r="BD45" t="n">
-        <v>-0.39473684</v>
-      </c>
-      <c r="BE45" t="inlineStr"/>
+        <v>-0.6430868199999999</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>-0.74193548</v>
+      </c>
       <c r="BF45" t="inlineStr"/>
       <c r="BG45" t="inlineStr"/>
       <c r="BH45" t="n">
-        <v>-0.39473684</v>
+        <v>-0.65204678</v>
       </c>
     </row>
     <row r="46">
@@ -8337,10 +8437,10 @@
         <v>357.7</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -8355,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>357.7</v>
+        <v>395.5</v>
       </c>
       <c r="X46" t="n">
-        <v>357.7</v>
+        <v>395.5</v>
       </c>
       <c r="Y46" t="n">
         <v>-0.05723906</v>
@@ -8405,10 +8505,10 @@
         <v>77</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS46" t="n">
         <v>0</v>
@@ -8426,10 +8526,10 @@
         <v>6</v>
       </c>
       <c r="AX46" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AY46" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AZ46" t="n">
         <v>0</v>
@@ -8451,24 +8551,24 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" t="n">
-        <v>1003039</v>
+        <v>1008252</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>galerias san salvador</t>
+          <t>metrocentro santa ana</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -8477,40 +8577,40 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H47" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="K47" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="L47" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="M47" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="N47" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="O47" t="n">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="P47" t="n">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -8525,62 +8625,66 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="X47" t="n">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.70557308</v>
-      </c>
-      <c r="Z47" t="inlineStr"/>
+        <v>2.85416667</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.02970297</v>
+      </c>
       <c r="AA47" t="n">
-        <v>-0.22299922</v>
+        <v>-0.57837302</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01010101</v>
+        <v>-0.21875</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.25483304</v>
-      </c>
-      <c r="AD47" t="inlineStr"/>
+        <v>-0.11961141</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.32850242</v>
+      </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="n">
-        <v>-0.25483304</v>
+        <v>-0.06957929</v>
       </c>
       <c r="AH47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL47" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AM47" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AN47" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AO47" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AP47" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS47" t="n">
         <v>0</v>
@@ -8595,32 +8699,36 @@
         <v>0</v>
       </c>
       <c r="AW47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX47" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AY47" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-0.71428571</v>
-      </c>
-      <c r="BA47" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1</v>
+      </c>
       <c r="BB47" t="n">
-        <v>-0.23076923</v>
+        <v>-0.5952381</v>
       </c>
       <c r="BC47" t="n">
-        <v>0.10714286</v>
+        <v>0</v>
       </c>
       <c r="BD47" t="n">
-        <v>-0.23863636</v>
-      </c>
-      <c r="BE47" t="inlineStr"/>
+        <v>-0.05797101</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0.22222222</v>
+      </c>
       <c r="BF47" t="inlineStr"/>
       <c r="BG47" t="inlineStr"/>
       <c r="BH47" t="n">
-        <v>-0.23863636</v>
+        <v>-0.02564103</v>
       </c>
     </row>
     <row r="48">
@@ -8628,21 +8736,21 @@
         <v>61</v>
       </c>
       <c r="B48" t="n">
-        <v>1008252</v>
+        <v>1003039</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>metrocentro santa ana</t>
+          <t>galerias san salvador</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -8651,40 +8759,40 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H48" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I48" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="L48" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M48" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N48" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="O48" t="n">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="P48" t="n">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="Q48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -8699,66 +8807,62 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="X48" t="n">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.85416667</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.02970297</v>
-      </c>
+        <v>-0.70557308</v>
+      </c>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
-        <v>-0.57837302</v>
+        <v>-0.22299922</v>
       </c>
       <c r="AB48" t="n">
-        <v>-0.21875</v>
+        <v>0.01010101</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.11961141</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>-0.63768116</v>
-      </c>
+        <v>-0.25483304</v>
+      </c>
+      <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="n">
-        <v>-0.17745415</v>
+        <v>-0.25483304</v>
       </c>
       <c r="AH48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AJ48" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AM48" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AN48" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AO48" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AP48" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS48" t="n">
         <v>0</v>
@@ -8773,41 +8877,37 @@
         <v>0</v>
       </c>
       <c r="AW48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX48" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AY48" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ48" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>1</v>
-      </c>
+        <v>-0.71428571</v>
+      </c>
+      <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="n">
-        <v>-0.5952381</v>
+        <v>-0.23076923</v>
       </c>
       <c r="BC48" t="n">
-        <v>0</v>
+        <v>0.10714286</v>
       </c>
       <c r="BD48" t="n">
-        <v>-0.05797101</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>-0.66666667</v>
-      </c>
+        <v>-0.23863636</v>
+      </c>
+      <c r="BE48" t="inlineStr"/>
       <c r="BF48" t="inlineStr"/>
       <c r="BG48" t="inlineStr"/>
       <c r="BH48" t="n">
-        <v>-0.12820513</v>
+        <v>-0.23863636</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="n">
         <v>1072609</v>
@@ -8863,10 +8963,10 @@
         <v>211.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -8881,10 +8981,10 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>211.8</v>
+        <v>258.6</v>
       </c>
       <c r="X49" t="n">
-        <v>211.8</v>
+        <v>258.6</v>
       </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
@@ -8923,10 +9023,10 @@
         <v>22</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS49" t="n">
         <v>0</v>
@@ -8944,10 +9044,10 @@
         <v>4</v>
       </c>
       <c r="AX49" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AY49" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
@@ -8961,24 +9061,24 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B50" t="n">
-        <v>1003040</v>
+        <v>1003039</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>multiplaza san salvador</t>
+          <t>galerias san salvador</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cadejo Blanco</t>
+          <t>Alarido</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Antiguo Cuscatlan</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -8987,46 +9087,46 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J50" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K50" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L50" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>151.6</v>
+        <v>100</v>
       </c>
       <c r="P50" t="n">
-        <v>151.6</v>
+        <v>100</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -9035,58 +9135,72 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>151.6</v>
+        <v>186</v>
       </c>
       <c r="X50" t="n">
-        <v>151.6</v>
+        <v>186</v>
       </c>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>-0.78768577</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.7402597400000001</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.75903614</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.76409531</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.12794033</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.80620155</v>
+      </c>
       <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
+      <c r="AG50" t="n">
+        <v>-0.66942149</v>
+      </c>
       <c r="AH50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL50" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AM50" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP50" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -9095,44 +9209,58 @@
         <v>0</v>
       </c>
       <c r="AW50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX50" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AY50" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AZ50" t="inlineStr"/>
-      <c r="BA50" t="inlineStr"/>
-      <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="inlineStr"/>
-      <c r="BD50" t="inlineStr"/>
-      <c r="BE50" t="inlineStr"/>
-      <c r="BF50" t="inlineStr"/>
+      <c r="BA50" t="n">
+        <v>-0.71428571</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>-0.74285714</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>-0.82352941</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>-0.7446808499999999</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>-0.11111111</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>-0.83333333</v>
+      </c>
       <c r="BG50" t="inlineStr"/>
-      <c r="BH50" t="inlineStr"/>
+      <c r="BH50" t="n">
+        <v>-0.66129032</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" t="n">
-        <v>1072609</v>
+        <v>1003040</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>galerias san salvador</t>
+          <t>multiplaza san salvador</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Cadejo Blanco</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Antiguo Cuscatlan</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -9141,34 +9269,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K51" t="n">
-        <v>63.6</v>
+        <v>52</v>
       </c>
       <c r="L51" t="n">
-        <v>63.6</v>
+        <v>52</v>
       </c>
       <c r="M51" t="n">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>36.6</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>100.2</v>
+        <v>151.6</v>
       </c>
       <c r="P51" t="n">
-        <v>100.2</v>
+        <v>151.6</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -9189,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>100.2</v>
+        <v>151.6</v>
       </c>
       <c r="X51" t="n">
-        <v>100.2</v>
+        <v>151.6</v>
       </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
@@ -9204,31 +9332,31 @@
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL51" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AM51" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AN51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AQ51" t="n">
         <v>0</v>
@@ -9249,13 +9377,13 @@
         <v>0</v>
       </c>
       <c r="AW51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX51" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AY51" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
@@ -9281,7 +9409,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Alarido</t>
+          <t>Cadejo Blanco</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9295,40 +9423,40 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I52" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J52" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K52" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P52" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -9343,62 +9471,52 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="X52" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="n">
-        <v>-0.78768577</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>-0.7402597400000001</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>-0.75903614</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>-0.76409531</v>
-      </c>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="n">
-        <v>-0.76409531</v>
-      </c>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL52" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR52" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS52" t="n">
         <v>0</v>
@@ -9413,40 +9531,30 @@
         <v>0</v>
       </c>
       <c r="AW52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX52" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AY52" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ52" t="inlineStr"/>
-      <c r="BA52" t="n">
-        <v>-0.71428571</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>-0.74285714</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>-0.82352941</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>-0.7446808499999999</v>
-      </c>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr"/>
       <c r="BE52" t="inlineStr"/>
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
-      <c r="BH52" t="n">
-        <v>-0.7446808499999999</v>
-      </c>
+      <c r="BH52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="n">
-        <v>1003039</v>
+        <v>1072609</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -9455,7 +9563,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cadejo Blanco</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9469,40 +9577,40 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="O53" t="n">
-        <v>80</v>
+        <v>100.2</v>
       </c>
       <c r="P53" t="n">
-        <v>80</v>
+        <v>100.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -9517,10 +9625,10 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>88</v>
+        <v>100.2</v>
       </c>
       <c r="X53" t="n">
-        <v>88</v>
+        <v>100.2</v>
       </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
@@ -9532,37 +9640,37 @@
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP53" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS53" t="n">
         <v>0</v>
@@ -9577,13 +9685,13 @@
         <v>0</v>
       </c>
       <c r="AW53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX53" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AY53" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
@@ -9597,14 +9705,14 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" t="n">
-        <v>1008252</v>
+        <v>1003034</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>metrocentro santa ana</t>
+          <t>Metrocentro San Salvador</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9614,31 +9722,31 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Salvador</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>25</v>
+        <v>54.45</v>
       </c>
       <c r="H54" t="n">
-        <v>25</v>
+        <v>54.45</v>
       </c>
       <c r="I54" t="n">
-        <v>22.8</v>
+        <v>4.95</v>
       </c>
       <c r="J54" t="n">
-        <v>22.8</v>
+        <v>4.95</v>
       </c>
       <c r="K54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -9647,16 +9755,16 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>72.8</v>
+        <v>59.4</v>
       </c>
       <c r="P54" t="n">
-        <v>72.8</v>
+        <v>59.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -9671,10 +9779,10 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>72.8</v>
+        <v>95.7</v>
       </c>
       <c r="X54" t="n">
-        <v>72.8</v>
+        <v>95.7</v>
       </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
@@ -9686,22 +9794,22 @@
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI54" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
         <v>0</v>
@@ -9710,13 +9818,13 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS54" t="n">
         <v>0</v>
@@ -9731,13 +9839,13 @@
         <v>0</v>
       </c>
       <c r="AW54" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX54" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AY54" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr"/>
@@ -9751,14 +9859,14 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B55" t="n">
-        <v>1003034</v>
+        <v>1008252</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Metrocentro San Salvador</t>
+          <t>metrocentro santa ana</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9768,31 +9876,31 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>San Salvador</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>54.45</v>
+        <v>25</v>
       </c>
       <c r="H55" t="n">
-        <v>54.45</v>
+        <v>25</v>
       </c>
       <c r="I55" t="n">
-        <v>4.95</v>
+        <v>22.8</v>
       </c>
       <c r="J55" t="n">
-        <v>4.95</v>
+        <v>22.8</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -9801,16 +9909,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>59.4</v>
+        <v>72.8</v>
       </c>
       <c r="P55" t="n">
-        <v>59.4</v>
+        <v>72.8</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -9825,10 +9933,10 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>59.4</v>
+        <v>87.8</v>
       </c>
       <c r="X55" t="n">
-        <v>59.4</v>
+        <v>87.8</v>
       </c>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
@@ -9840,22 +9948,22 @@
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI55" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AJ55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN55" t="n">
         <v>0</v>
@@ -9864,13 +9972,13 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS55" t="n">
         <v>0</v>
@@ -9885,13 +9993,13 @@
         <v>0</v>
       </c>
       <c r="AW55" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX55" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY55" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="inlineStr"/>
